--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Dropbox (UCSB EFP)/EFP Monthly Update/Output/Zillow/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16220" yWindow="3560" windowWidth="28800" windowHeight="16400"/>
+    <workbookView xWindow="4980" yWindow="840" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,11 +18,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -135,12 +140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -779,7 +784,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -851,12 +856,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,7 +882,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -887,30 +892,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1270,10 +1275,10 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
@@ -1282,23 +1287,23 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
-        <v>43473</v>
+        <v>43532</v>
       </c>
       <c r="B1" s="45"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1312,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1316,19 +1321,19 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43434</v>
+        <v>43497</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="12.5" customHeight="1">
+    <row r="7" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14" t="s">
@@ -1345,7 +1350,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.5" customHeight="1">
+    <row r="8" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="16"/>
       <c r="C8" s="20" t="s">
@@ -1364,70 +1369,70 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.5" customHeight="1">
+    <row r="9" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>594800</v>
+        <v>600900</v>
       </c>
       <c r="D9" s="10">
-        <v>1.0097610232244799E-3</v>
+        <v>1.8339446482160699E-3</v>
       </c>
       <c r="E9" s="30">
-        <v>3.47947112038971E-2</v>
+        <v>3.5498879889712197E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.86971779499926904</v>
+        <v>0.87863722766486296</v>
       </c>
       <c r="G9" s="33">
         <v>4.9218297625940899</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.5" customHeight="1">
+    <row r="10" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>547900</v>
+        <v>548800</v>
       </c>
       <c r="D10" s="10">
-        <v>3.1124130355182399E-3</v>
+        <v>-1.82182546912046E-4</v>
       </c>
       <c r="E10" s="30">
-        <v>5.6498264558426402E-2</v>
+        <v>3.1966904851447903E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.0144417700425801</v>
+        <v>1.01610812812442</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.5" customHeight="1">
+    <row r="11" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>222800</v>
+        <v>226300</v>
       </c>
       <c r="D11" s="40">
-        <v>5.4151624548737197E-3</v>
+        <v>3.10283687943258E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>7.7369439071566695E-2</v>
+        <v>7.2003789673140695E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>0.50224438902743096</v>
+        <v>0.50124688279301699</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.5" customHeight="1">
+    <row r="12" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -1436,7 +1441,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="12.5" customHeight="1">
+    <row r="13" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
@@ -1447,173 +1452,173 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="12.5" customHeight="1">
+    <row r="14" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>850100</v>
+        <v>862900</v>
       </c>
       <c r="D14" s="10">
-        <v>-2.1129240521188301E-3</v>
+        <v>-1.3887281564634001E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>1.41970890002385E-2</v>
+        <v>3.0328358208955301E-2</v>
       </c>
       <c r="F14" s="33">
-        <v>0.93582122413033897</v>
+        <v>0.94991193306913302</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.5" customHeight="1">
+    <row r="15" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>817300</v>
+        <v>819800</v>
       </c>
       <c r="D15" s="10">
-        <v>6.1214495592554197E-4</v>
+        <v>-7.3135056070205995E-4</v>
       </c>
       <c r="E15" s="30">
-        <v>2.44422160942592E-2</v>
+        <v>1.96517412935324E-2</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89518072289156603</v>
+        <v>0.89791894852135801</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.5" customHeight="1">
+    <row r="16" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>347400</v>
+        <v>348900</v>
       </c>
       <c r="D16" s="40">
-        <v>-2.8776978417266501E-4</v>
+        <v>-1.43102461362332E-3</v>
       </c>
       <c r="E16" s="31">
-        <v>5.9146341463414603E-2</v>
+        <v>5.4078549848942697E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.78721957851801505</v>
+        <v>0.79043951064793805</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.5" customHeight="1">
+    <row r="17" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3235300</v>
+        <v>3222700</v>
       </c>
       <c r="D17" s="10">
-        <v>-2.8048329429169998E-3</v>
+        <v>-2.2909507445589799E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>2.9039440203562299E-2</v>
+        <v>1.40973598917524E-2</v>
       </c>
       <c r="F17" s="33">
-        <v>1.0751719783323901</v>
+        <v>1.0709135014787501</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.5" customHeight="1">
+    <row r="18" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1172400</v>
+        <v>1165500</v>
       </c>
       <c r="D18" s="10">
-        <v>1.7061934823403601E-4</v>
+        <v>-3.8461538461538299E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>7.5793723619012696E-2</v>
+        <v>3.99750156152405E-2</v>
       </c>
       <c r="F18" s="33">
-        <v>1.0660120021822199</v>
+        <v>1.05973813420622</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.5" customHeight="1">
+    <row r="19" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>382000</v>
+        <v>387200</v>
       </c>
       <c r="D19" s="40">
-        <v>1.5731515469323801E-3</v>
+        <v>1.03412616339194E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>4.3430756623873197E-2</v>
+        <v>4.3384532471032002E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.83588621444201305</v>
+        <v>0.84726477024070002</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" customHeight="1">
+    <row r="20" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>774400</v>
+        <v>781400</v>
       </c>
       <c r="D20" s="43">
-        <v>1.6815418445219599E-3</v>
+        <v>1.02485267742769E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>6.16945434603784E-2</v>
+        <v>4.6050870147255701E-2</v>
       </c>
       <c r="F20" s="44">
-        <v>0.87236679058240396</v>
+        <v>0.88025233750140797</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
@@ -1621,7 +1626,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
@@ -1629,7 +1634,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
@@ -1637,7 +1642,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="37"/>
@@ -1645,7 +1650,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="37"/>
@@ -1653,7 +1658,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
@@ -1661,7 +1666,7 @@
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -1669,7 +1674,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -1690,11 +1695,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1704,16 +1704,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1723,15 +1718,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4980" yWindow="840" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="4680" yWindow="600" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1275,7 +1275,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1289,7 +1289,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
-        <v>43532</v>
+        <v>43576</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1375,16 +1375,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>600900</v>
+        <v>601700</v>
       </c>
       <c r="D9" s="10">
-        <v>1.8339446482160699E-3</v>
+        <v>9.9817002162705393E-4</v>
       </c>
       <c r="E9" s="30">
-        <v>3.5498879889712197E-2</v>
+        <v>3.4737747205503003E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.87863722766486296</v>
+        <v>0.87980698932592505</v>
       </c>
       <c r="G9" s="33">
         <v>4.9218297625940899</v>
@@ -1396,16 +1396,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>548800</v>
+        <v>548700</v>
       </c>
       <c r="D10" s="10">
-        <v>-1.82182546912046E-4</v>
+        <v>-2.18221494817239E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>3.1966904851447903E-2</v>
+        <v>2.5799214806505801E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.01610812812442</v>
+        <v>1.01592297722644</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
@@ -1417,16 +1417,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>226300</v>
+        <v>226700</v>
       </c>
       <c r="D11" s="40">
-        <v>3.10283687943258E-3</v>
+        <v>1.76756517896592E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>7.2003789673140695E-2</v>
+        <v>6.6321730950141197E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>0.50124688279301699</v>
+        <v>1.1306733167082299</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>27</v>
@@ -1458,16 +1458,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>862900</v>
+        <v>864700</v>
       </c>
       <c r="D14" s="10">
-        <v>-1.3887281564634001E-3</v>
+        <v>6.9436407823175695E-4</v>
       </c>
       <c r="E14" s="30">
-        <v>3.0328358208955301E-2</v>
+        <v>2.6959619952494001E-2</v>
       </c>
       <c r="F14" s="33">
-        <v>0.94991193306913302</v>
+        <v>0.95189343901364998</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
@@ -1479,16 +1479,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>819800</v>
+        <v>818500</v>
       </c>
       <c r="D15" s="10">
-        <v>-7.3135056070205995E-4</v>
+        <v>-8.544921875E-4</v>
       </c>
       <c r="E15" s="30">
-        <v>1.96517412935324E-2</v>
+        <v>1.7402113113735199E-2</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89791894852135801</v>
+        <v>0.89649507119386596</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
@@ -1500,16 +1500,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>348900</v>
+        <v>348800</v>
       </c>
       <c r="D16" s="40">
-        <v>-1.43102461362332E-3</v>
+        <v>-2.8661507595295599E-4</v>
       </c>
       <c r="E16" s="31">
-        <v>5.4078549848942697E-2</v>
+        <v>4.80769230769231E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.79043951064793805</v>
+        <v>0.79039202356673499</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
@@ -1521,16 +1521,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3222700</v>
+        <v>3224600</v>
       </c>
       <c r="D17" s="10">
-        <v>-2.2909507445589799E-3</v>
+        <v>6.5166795965865298E-4</v>
       </c>
       <c r="E17" s="30">
-        <v>1.40973598917524E-2</v>
+        <v>1.4216518840032701E-2</v>
       </c>
       <c r="F17" s="33">
-        <v>1.0709135014787501</v>
+        <v>1.0716160978365601</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
@@ -1542,16 +1542,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1165500</v>
+        <v>1164200</v>
       </c>
       <c r="D18" s="10">
-        <v>-3.8461538461538299E-3</v>
+        <v>-4.29295097449933E-4</v>
       </c>
       <c r="E18" s="30">
-        <v>3.99750156152405E-2</v>
+        <v>2.9900920028308499E-2</v>
       </c>
       <c r="F18" s="33">
-        <v>1.05973813420622</v>
+        <v>1.0585561011092901</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
@@ -1563,16 +1563,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>387200</v>
+        <v>388000</v>
       </c>
       <c r="D19" s="40">
-        <v>1.03412616339194E-3</v>
+        <v>1.80738445649364E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>4.3384532471032002E-2</v>
+        <v>3.7988228999464899E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.84726477024070002</v>
+        <v>0.84901531728665203</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
@@ -1584,16 +1584,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>781400</v>
+        <v>783600</v>
       </c>
       <c r="D20" s="43">
-        <v>1.02485267742769E-3</v>
+        <v>2.1741910730273002E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>4.6050870147255701E-2</v>
+        <v>4.3964828137490003E-2</v>
       </c>
       <c r="F20" s="44">
-        <v>0.88025233750140797</v>
+        <v>0.88273065224738101</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>

--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Dropbox (UCSB EFP)/EFP Monthly Update/Output/Zillow/Tables/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="600" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="6040" yWindow="2200" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,11 +13,11 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -140,12 +135,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -784,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -856,12 +851,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -882,7 +877,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -892,30 +887,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1275,10 +1270,10 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
@@ -1287,23 +1282,23 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="45">
-        <v>43576</v>
+        <v>43615</v>
       </c>
       <c r="B1" s="45"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1307,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1321,19 +1316,19 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="12.5" customHeight="1">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14" t="s">
@@ -1350,7 +1345,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="12.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="16"/>
       <c r="C8" s="20" t="s">
@@ -1369,70 +1364,70 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="12.5" customHeight="1">
       <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>601700</v>
+        <v>602600</v>
       </c>
       <c r="D9" s="10">
-        <v>9.9817002162705393E-4</v>
+        <v>1.329345297441E-3</v>
       </c>
       <c r="E9" s="30">
-        <v>3.4737747205503003E-2</v>
+        <v>3.6820371644872701E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.87980698932592505</v>
+        <v>0.88112297119461902</v>
       </c>
       <c r="G9" s="33">
         <v>4.9218297625940899</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="12.5" customHeight="1">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>548700</v>
+        <v>548000</v>
       </c>
       <c r="D10" s="10">
-        <v>-2.18221494817239E-3</v>
+        <v>-2.0032780914223101E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>2.5799214806505801E-2</v>
+        <v>2.1625652498135799E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.01592297722644</v>
+        <v>1.0146269209405701</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="12.5" customHeight="1">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>226700</v>
+        <v>226800</v>
       </c>
       <c r="D11" s="40">
-        <v>1.76756517896592E-3</v>
+        <v>-8.8105726872245204E-4</v>
       </c>
       <c r="E11" s="31">
-        <v>6.6321730950141197E-2</v>
+        <v>6.1300889096864701E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>1.1306733167082299</v>
+        <v>1.1311720698254399</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="12.5" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -1441,7 +1436,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="12.5" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
@@ -1452,173 +1447,173 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="12.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>864700</v>
+        <v>857100</v>
       </c>
       <c r="D14" s="10">
-        <v>6.9436407823175695E-4</v>
+        <v>-5.5690915419421803E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>2.6959619952494001E-2</v>
+        <v>1.49200710479573E-2</v>
       </c>
       <c r="F14" s="33">
-        <v>0.95189343901364998</v>
+        <v>0.94352708058124202</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="12.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>818500</v>
+        <v>816600</v>
       </c>
       <c r="D15" s="10">
-        <v>-8.544921875E-4</v>
+        <v>-1.4673514306676699E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>1.7402113113735199E-2</v>
+        <v>1.41579731743666E-2</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89649507119386596</v>
+        <v>0.89441401971522405</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="12.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>348800</v>
+        <v>349000</v>
       </c>
       <c r="D16" s="40">
-        <v>-2.8661507595295599E-4</v>
+        <v>2.8661507595306702E-4</v>
       </c>
       <c r="E16" s="31">
-        <v>4.80769230769231E-2</v>
+        <v>4.3660287081339601E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.79039202356673499</v>
+        <v>0.79084523000226603</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3224600</v>
+        <v>3197400</v>
       </c>
       <c r="D17" s="10">
-        <v>6.5166795965865298E-4</v>
+        <v>-5.0101135833203704E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>1.4216518840032701E-2</v>
+        <v>7.2137344463694096E-3</v>
       </c>
       <c r="F17" s="33">
-        <v>1.0716160978365601</v>
+        <v>1.062576850221</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1164200</v>
+        <v>1157400</v>
       </c>
       <c r="D18" s="10">
-        <v>-4.29295097449933E-4</v>
+        <v>-3.3583053474554002E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>2.9900920028308499E-2</v>
+        <v>1.66007905138339E-2</v>
       </c>
       <c r="F18" s="33">
-        <v>1.0585561011092901</v>
+        <v>1.05237315875614</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>388000</v>
+        <v>390000</v>
       </c>
       <c r="D19" s="40">
-        <v>1.80738445649364E-3</v>
+        <v>3.8610038610038498E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>3.7988228999464899E-2</v>
+        <v>3.8615179760319598E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.84901531728665203</v>
+        <v>0.85339168490153205</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.5" customHeight="1">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>783600</v>
+        <v>777000</v>
       </c>
       <c r="D20" s="43">
-        <v>2.1741910730273002E-3</v>
+        <v>-5.2490078094994397E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>4.3964828137490003E-2</v>
+        <v>2.8321863419798799E-2</v>
       </c>
       <c r="F20" s="44">
-        <v>0.88273065224738101</v>
+        <v>0.87529570800946299</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1">
       <c r="B22" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1">
       <c r="B23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="B25" s="39"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
@@ -1626,7 +1621,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
@@ -1634,7 +1629,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="B27" s="39"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
@@ -1642,7 +1637,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="37"/>
@@ -1650,7 +1645,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="37"/>
@@ -1658,7 +1653,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
@@ -1666,7 +1661,7 @@
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -1674,7 +1669,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -1695,6 +1690,11 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1704,11 +1704,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1718,10 +1723,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6040" yWindow="2200" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="24500" yWindow="3020" windowWidth="25600" windowHeight="14600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1284,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="45">
-        <v>43615</v>
+        <v>43638</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1370,16 +1370,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>602600</v>
+        <v>600500</v>
       </c>
       <c r="D9" s="10">
-        <v>1.329345297441E-3</v>
+        <v>-1.4965081476554501E-3</v>
       </c>
       <c r="E9" s="30">
-        <v>3.6820371644872701E-2</v>
+        <v>3.0724339169241301E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.88112297119461902</v>
+        <v>0.87805234683433298</v>
       </c>
       <c r="G9" s="33">
         <v>4.9218297625940899</v>
@@ -1391,16 +1391,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>548000</v>
+        <v>547700</v>
       </c>
       <c r="D10" s="10">
-        <v>-2.0032780914223101E-3</v>
+        <v>-2.0043731778425201E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>2.1625652498135799E-2</v>
+        <v>1.7462381571614401E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.0146269209405701</v>
+        <v>1.0140714682466201</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
@@ -1415,10 +1415,10 @@
         <v>226800</v>
       </c>
       <c r="D11" s="40">
-        <v>-8.8105726872245204E-4</v>
+        <v>-1.32100396301194E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>6.1300889096864701E-2</v>
+        <v>5.3903345724907001E-2</v>
       </c>
       <c r="F11" s="33">
         <v>1.1311720698254399</v>
@@ -1453,16 +1453,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>857100</v>
+        <v>845400</v>
       </c>
       <c r="D14" s="10">
-        <v>-5.5690915419421803E-3</v>
+        <v>-9.9543272045906593E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>1.49200710479573E-2</v>
+        <v>-4.12298268347278E-3</v>
       </c>
       <c r="F14" s="33">
-        <v>0.94352708058124202</v>
+        <v>0.93064729194187601</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
@@ -1474,16 +1474,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>816600</v>
+        <v>813800</v>
       </c>
       <c r="D15" s="10">
-        <v>-1.4673514306676699E-3</v>
+        <v>-1.8398135655587301E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>1.41579731743666E-2</v>
+        <v>8.3013257341098007E-3</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89441401971522405</v>
+        <v>0.89134720700985803</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
@@ -1495,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>349000</v>
+        <v>348300</v>
       </c>
       <c r="D16" s="40">
-        <v>2.8661507595306702E-4</v>
+        <v>-8.6058519793463795E-4</v>
       </c>
       <c r="E16" s="31">
-        <v>4.3660287081339601E-2</v>
+        <v>3.5066864784546903E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.79084523000226603</v>
+        <v>0.789259007477906</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3197400</v>
+        <v>3164900</v>
       </c>
       <c r="D17" s="10">
-        <v>-5.0101135833203704E-3</v>
+        <v>-6.9032602215318697E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>7.2137344463694096E-3</v>
+        <v>-5.65522008231489E-3</v>
       </c>
       <c r="F17" s="33">
-        <v>1.062576850221</v>
+        <v>1.0517762786215099</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
@@ -1537,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1157400</v>
+        <v>1148600</v>
       </c>
       <c r="D18" s="10">
-        <v>-3.3583053474554002E-3</v>
+        <v>-5.1966048848085498E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>1.66007905138339E-2</v>
+        <v>-1.04365976691601E-3</v>
       </c>
       <c r="F18" s="33">
-        <v>1.05237315875614</v>
+        <v>1.04437170394617</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
@@ -1558,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>390000</v>
+        <v>390800</v>
       </c>
       <c r="D19" s="40">
-        <v>3.8610038610038498E-3</v>
+        <v>2.3082841754296099E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>3.8615179760319598E-2</v>
+        <v>3.7154989384288899E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.85339168490153205</v>
+        <v>0.85514223194748396</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
@@ -1579,16 +1579,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>777000</v>
+        <v>772000</v>
       </c>
       <c r="D20" s="43">
-        <v>-5.2490078094994397E-3</v>
+        <v>-5.0264209305322903E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>2.8321863419798799E-2</v>
+        <v>1.00745780452702E-2</v>
       </c>
       <c r="F20" s="44">
-        <v>0.87529570800946299</v>
+        <v>0.86966317449588804</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>

--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -1270,7 +1270,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1284,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="45">
-        <v>43638</v>
+        <v>43666</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1370,16 +1370,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>600500</v>
+        <v>602800</v>
       </c>
       <c r="D9" s="10">
-        <v>-1.4965081476554501E-3</v>
+        <v>0</v>
       </c>
       <c r="E9" s="30">
-        <v>3.0724339169241301E-2</v>
+        <v>3.00751879699248E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.87805234683433298</v>
+        <v>0.88141541160988401</v>
       </c>
       <c r="G9" s="33">
         <v>4.9218297625940899</v>
@@ -1391,16 +1391,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>547700</v>
+        <v>547500</v>
       </c>
       <c r="D10" s="10">
-        <v>-2.0043731778425201E-3</v>
+        <v>-1.2769062385989999E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>1.7462381571614401E-2</v>
+        <v>1.33259300388673E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.0140714682466201</v>
+        <v>1.0137011664506601</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
@@ -1412,16 +1412,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>226800</v>
+        <v>227700</v>
       </c>
       <c r="D11" s="40">
-        <v>-1.32100396301194E-3</v>
+        <v>8.7912087912078696E-4</v>
       </c>
       <c r="E11" s="31">
-        <v>5.3903345724907001E-2</v>
+        <v>5.2218114602587698E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>1.1311720698254399</v>
+        <v>1.1356608478803001</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>27</v>
@@ -1453,16 +1453,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>845400</v>
+        <v>839900</v>
       </c>
       <c r="D14" s="10">
-        <v>-9.9543272045906593E-3</v>
+        <v>-7.7968103957472001E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>-4.12298268347278E-3</v>
+        <v>-1.0252180061277399E-2</v>
       </c>
       <c r="F14" s="33">
-        <v>0.93064729194187601</v>
+        <v>0.92459269044473802</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
@@ -1474,16 +1474,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>813800</v>
+        <v>815400</v>
       </c>
       <c r="D15" s="10">
-        <v>-1.8398135655587301E-3</v>
+        <v>-1.22488975992163E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>8.3013257341098007E-3</v>
+        <v>8.28490169407692E-3</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89134720700985803</v>
+        <v>0.89309967141292401</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
@@ -1495,16 +1495,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>348300</v>
+        <v>348900</v>
       </c>
       <c r="D16" s="40">
-        <v>-8.6058519793463795E-4</v>
+        <v>-1.1451474377326401E-3</v>
       </c>
       <c r="E16" s="31">
-        <v>3.5066864784546903E-2</v>
+        <v>3.1333136269583201E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.789259007477906</v>
+        <v>0.79043951064793805</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
@@ -1516,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3164900</v>
+        <v>3169300</v>
       </c>
       <c r="D17" s="10">
-        <v>-6.9032602215318697E-3</v>
+        <v>-1.5436960493982999E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>-5.65522008231489E-3</v>
+        <v>-4.30411561420041E-3</v>
       </c>
       <c r="F17" s="33">
-        <v>1.0517762786215099</v>
+        <v>1.0531335149863801</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
@@ -1537,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1148600</v>
+        <v>1149000</v>
       </c>
       <c r="D18" s="10">
-        <v>-5.1966048848085498E-3</v>
+        <v>-2.95036445678587E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>-1.04365976691601E-3</v>
+        <v>-9.8241985522233791E-3</v>
       </c>
       <c r="F18" s="33">
-        <v>1.04437170394617</v>
+        <v>1.04473540643753</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
@@ -1558,16 +1558,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>390800</v>
+        <v>392300</v>
       </c>
       <c r="D19" s="40">
-        <v>2.3082841754296099E-3</v>
+        <v>5.1007396072422196E-4</v>
       </c>
       <c r="E19" s="31">
-        <v>3.7154989384288899E-2</v>
+        <v>4.0031813361611802E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.85514223194748396</v>
+        <v>0.85842450765864298</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
@@ -1579,16 +1579,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>772000</v>
+        <v>774400</v>
       </c>
       <c r="D20" s="43">
-        <v>-5.0264209305322903E-3</v>
+        <v>-5.16262261228695E-4</v>
       </c>
       <c r="E20" s="42">
-        <v>1.00745780452702E-2</v>
+        <v>5.0616482803373898E-3</v>
       </c>
       <c r="F20" s="44">
-        <v>0.86966317449588804</v>
+        <v>0.87236679058240396</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>

--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Dropbox (UCSB EFP)/EFP Monthly Update/Output/Zillow/Tables/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C461DC-B2E5-474A-9008-F989CCA74AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24500" yWindow="3020" windowWidth="25600" windowHeight="14600"/>
+    <workbookView xWindow="24500" yWindow="3020" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
@@ -133,14 +139,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="mmmm\ yyyy"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -779,7 +785,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -851,12 +857,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,7 +883,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -887,30 +893,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1266,14 +1272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5" customWidth="1"/>
     <col min="2" max="2" width="27.1640625" customWidth="1"/>
@@ -1282,23 +1288,23 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
-        <v>43666</v>
+        <v>43725</v>
       </c>
       <c r="B1" s="45"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15">
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1313,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
@@ -1316,19 +1322,19 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" ht="12.5" customHeight="1">
+    <row r="7" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="15"/>
       <c r="C7" s="14" t="s">
@@ -1345,7 +1351,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="12.5" customHeight="1">
+    <row r="8" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="16"/>
       <c r="C8" s="20" t="s">
@@ -1364,7 +1370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="12.5" customHeight="1">
+    <row r="9" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
         <v>14</v>
       </c>
@@ -1373,10 +1379,10 @@
         <v>602800</v>
       </c>
       <c r="D9" s="10">
-        <v>0</v>
+        <v>-6.6312997347484103E-4</v>
       </c>
       <c r="E9" s="30">
-        <v>3.00751879699248E-2</v>
+        <v>2.3603328239089699E-2</v>
       </c>
       <c r="F9" s="33">
         <v>0.88141541160988401</v>
@@ -1385,49 +1391,49 @@
         <v>4.9218297625940899</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.5" customHeight="1">
+    <row r="10" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>547500</v>
+        <v>548600</v>
       </c>
       <c r="D10" s="10">
-        <v>-1.2769062385989999E-3</v>
+        <v>-5.4654764073602802E-4</v>
       </c>
       <c r="E10" s="30">
-        <v>1.33259300388673E-2</v>
+        <v>1.29246676514032E-2</v>
       </c>
       <c r="F10" s="33">
-        <v>1.0137011664506601</v>
+        <v>1.01573782632846</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.5" customHeight="1">
+    <row r="11" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>227700</v>
+        <v>229000</v>
       </c>
       <c r="D11" s="40">
-        <v>8.7912087912078696E-4</v>
+        <v>2.6269702276706698E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>5.2218114602587698E-2</v>
+        <v>5.1906293063849397E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>1.1356608478803001</v>
+        <v>1.1421446384039899</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="12.5" customHeight="1">
+    <row r="12" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
@@ -1436,7 +1442,7 @@
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
     </row>
-    <row r="13" spans="1:7" ht="12.5" customHeight="1">
+    <row r="13" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>5</v>
       </c>
@@ -1447,173 +1453,173 @@
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
     </row>
-    <row r="14" spans="1:7" ht="12.5" customHeight="1">
+    <row r="14" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>839900</v>
+        <v>837300</v>
       </c>
       <c r="D14" s="10">
-        <v>-7.7968103957472001E-3</v>
+        <v>-4.2811273635390296E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>-1.0252180061277399E-2</v>
+        <v>-1.21519584709768E-2</v>
       </c>
       <c r="F14" s="33">
-        <v>0.92459269044473802</v>
+        <v>0.92173051519154603</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="12.5" customHeight="1">
+    <row r="15" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>815400</v>
+        <v>814400</v>
       </c>
       <c r="D15" s="10">
-        <v>-1.22488975992163E-3</v>
+        <v>-2.3275756462085599E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>8.28490169407692E-3</v>
+        <v>2.83216352665927E-3</v>
       </c>
       <c r="F15" s="33">
-        <v>0.89309967141292401</v>
+        <v>0.892004381161008</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="12.5" customHeight="1">
+    <row r="16" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>348900</v>
+        <v>349500</v>
       </c>
       <c r="D16" s="40">
-        <v>-1.1451474377326401E-3</v>
+        <v>0</v>
       </c>
       <c r="E16" s="31">
-        <v>3.1333136269583201E-2</v>
+        <v>2.5528169014084501E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.79043951064793805</v>
+        <v>0.79197824609109402</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="12.5" customHeight="1">
+    <row r="17" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3169300</v>
+        <v>3167700</v>
       </c>
       <c r="D17" s="10">
-        <v>-1.5436960493982999E-3</v>
+        <v>-1.7961807525052099E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>-4.30411561420041E-3</v>
+        <v>-8.2031372303453792E-3</v>
       </c>
       <c r="F17" s="33">
-        <v>1.0531335149863801</v>
+        <v>1.05270678940547</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="12.5" customHeight="1">
+    <row r="18" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1149000</v>
+        <v>1139700</v>
       </c>
       <c r="D18" s="10">
-        <v>-2.95036445678587E-3</v>
+        <v>-6.9704626644593298E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>-9.8241985522233791E-3</v>
+        <v>-2.6313541221700199E-2</v>
       </c>
       <c r="F18" s="33">
-        <v>1.04473540643753</v>
+        <v>1.03627932351337</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="12.5" customHeight="1">
+    <row r="19" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="16" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>392300</v>
+        <v>393900</v>
       </c>
       <c r="D19" s="40">
-        <v>5.1007396072422196E-4</v>
+        <v>1.5255530129672E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>4.0031813361611802E-2</v>
+        <v>4.0686922060766198E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.85842450765864298</v>
+        <v>0.861925601750547</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="12.5" customHeight="1">
+    <row r="20" spans="1:7" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21"/>
       <c r="B20" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>774400</v>
+        <v>769600</v>
       </c>
       <c r="D20" s="43">
-        <v>-5.16262261228695E-4</v>
+        <v>-5.6847545219638196E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>5.0616482803373898E-3</v>
+        <v>-5.4277591108813396E-3</v>
       </c>
       <c r="F20" s="44">
-        <v>0.87236679058240396</v>
+        <v>0.866959558409373</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="12.75" customHeight="1">
+    <row r="22" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C22" s="23"/>
       <c r="D22" s="23"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" customHeight="1">
+    <row r="23" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C23" s="23"/>
       <c r="D23" s="23"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B25" s="39"/>
       <c r="C25" s="36"/>
       <c r="D25" s="34"/>
@@ -1621,7 +1627,7 @@
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
       <c r="D26" s="34"/>
@@ -1629,7 +1635,7 @@
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B27" s="39"/>
       <c r="C27" s="36"/>
       <c r="D27" s="34"/>
@@ -1637,7 +1643,7 @@
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
       <c r="D28" s="37"/>
@@ -1645,7 +1651,7 @@
       <c r="F28" s="35"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
       <c r="D29" s="37"/>
@@ -1653,7 +1659,7 @@
       <c r="F29" s="35"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
@@ -1661,7 +1667,7 @@
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B31" s="34"/>
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
@@ -1669,7 +1675,7 @@
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B32" s="34"/>
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
@@ -1678,7 +1684,7 @@
       <c r="G32" s="34"/>
     </row>
   </sheetData>
-  <sortState ref="A9:A20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:A20">
     <sortCondition ref="A9:A20"/>
   </sortState>
   <mergeCells count="1">
@@ -1686,7 +1692,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1699,12 +1705,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,12 +1724,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/images/Zillow/Tables/ZHVI Summary Table.xlsx
+++ b/images/Zillow/Tables/ZHVI Summary Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
   <workbookPr checkCompatibility="1" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ecnusbaum/Dropbox (UCSB EFP)/EFP Monthly Update/Output/Zillow/Tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C461DC-B2E5-474A-9008-F989CCA74AA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA97DCC9-9A18-B347-BA56-982B4569D08C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24500" yWindow="3020" windowWidth="25600" windowHeight="14600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1290,7 +1290,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="45">
-        <v>43725</v>
+        <v>43756</v>
       </c>
       <c r="B1" s="45"/>
     </row>
@@ -1327,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>43647</v>
+        <v>43709</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1376,16 +1376,16 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="26">
-        <v>602800</v>
+        <v>601000</v>
       </c>
       <c r="D9" s="10">
-        <v>-6.6312997347484103E-4</v>
+        <v>-2.8206404513024799E-3</v>
       </c>
       <c r="E9" s="30">
-        <v>2.3603328239089699E-2</v>
+        <v>1.2125294712024301E-2</v>
       </c>
       <c r="F9" s="33">
-        <v>0.88141541160988401</v>
+        <v>0.87878344787249596</v>
       </c>
       <c r="G9" s="33">
         <v>4.9218297625940899</v>
@@ -1397,16 +1397,16 @@
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="26">
-        <v>548600</v>
+        <v>550800</v>
       </c>
       <c r="D10" s="10">
-        <v>-5.4654764073602802E-4</v>
+        <v>2.1834061135370701E-3</v>
       </c>
       <c r="E10" s="30">
-        <v>1.29246676514032E-2</v>
+        <v>9.5307917888563E-3</v>
       </c>
       <c r="F10" s="33">
-        <v>1.01573782632846</v>
+        <v>1.01981114608406</v>
       </c>
       <c r="G10" s="33">
         <v>8.8235294117647101</v>
@@ -1418,16 +1418,16 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="26">
-        <v>229000</v>
+        <v>231000</v>
       </c>
       <c r="D11" s="40">
-        <v>2.6269702276706698E-3</v>
+        <v>3.0395136778116299E-3</v>
       </c>
       <c r="E11" s="31">
-        <v>5.1906293063849397E-2</v>
+        <v>4.8094373865698703E-2</v>
       </c>
       <c r="F11" s="33">
-        <v>1.1421446384039899</v>
+        <v>1.1521197007481301</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>27</v>
@@ -1459,16 +1459,16 @@
         <v>6</v>
       </c>
       <c r="C14" s="26">
-        <v>837300</v>
+        <v>850700</v>
       </c>
       <c r="D14" s="10">
-        <v>-4.2811273635390296E-3</v>
+        <v>3.18396226415096E-3</v>
       </c>
       <c r="E14" s="30">
-        <v>-1.21519584709768E-2</v>
+        <v>-2.2284775979357599E-3</v>
       </c>
       <c r="F14" s="33">
-        <v>0.92173051519154603</v>
+        <v>0.93648172611184499</v>
       </c>
       <c r="G14" s="33">
         <v>2.78971050174039</v>
@@ -1480,16 +1480,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="26">
-        <v>814400</v>
+        <v>813900</v>
       </c>
       <c r="D15" s="10">
-        <v>-2.3275756462085599E-3</v>
+        <v>-1.34969325153378E-3</v>
       </c>
       <c r="E15" s="30">
-        <v>2.83216352665927E-3</v>
+        <v>-3.06222439980397E-3</v>
       </c>
       <c r="F15" s="33">
-        <v>0.892004381161008</v>
+        <v>0.89145673603504905</v>
       </c>
       <c r="G15" s="33">
         <v>5.9606078614483398</v>
@@ -1501,16 +1501,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="26">
-        <v>349500</v>
+        <v>350200</v>
       </c>
       <c r="D16" s="40">
-        <v>0</v>
+        <v>-1.4257199885942E-3</v>
       </c>
       <c r="E16" s="31">
-        <v>2.5528169014084501E-2</v>
+        <v>1.1554015020219599E-2</v>
       </c>
       <c r="F16" s="33">
-        <v>0.79197824609109402</v>
+        <v>0.79338468509288596</v>
       </c>
       <c r="G16" s="33">
         <v>4.3934120044146399</v>
@@ -1522,16 +1522,16 @@
         <v>13</v>
       </c>
       <c r="C17" s="26">
-        <v>3167700</v>
+        <v>3118400</v>
       </c>
       <c r="D17" s="10">
-        <v>-1.7961807525052099E-3</v>
+        <v>-9.1195068475740104E-3</v>
       </c>
       <c r="E17" s="30">
-        <v>-8.2031372303453792E-3</v>
+        <v>-3.9871917238831198E-2</v>
       </c>
       <c r="F17" s="33">
-        <v>1.05270678940547</v>
+        <v>1.0362198444872699</v>
       </c>
       <c r="G17" s="33">
         <v>5.0326852873758403</v>
@@ -1543,16 +1543,16 @@
         <v>9</v>
       </c>
       <c r="C18" s="26">
-        <v>1139700</v>
+        <v>1138000</v>
       </c>
       <c r="D18" s="10">
-        <v>-6.9704626644593298E-3</v>
+        <v>-1.6668128783227101E-3</v>
       </c>
       <c r="E18" s="30">
-        <v>-2.6313541221700199E-2</v>
+        <v>-3.0416631166396799E-2</v>
       </c>
       <c r="F18" s="33">
-        <v>1.03627932351337</v>
+        <v>1.0347335879250801</v>
       </c>
       <c r="G18" s="33">
         <v>7.0158757110111196</v>
@@ -1564,16 +1564,16 @@
         <v>10</v>
       </c>
       <c r="C19" s="26">
-        <v>393900</v>
+        <v>394700</v>
       </c>
       <c r="D19" s="40">
-        <v>1.5255530129672E-3</v>
+        <v>-1.7703591299949E-3</v>
       </c>
       <c r="E19" s="31">
-        <v>4.0686922060766198E-2</v>
+        <v>3.6502100840336102E-2</v>
       </c>
       <c r="F19" s="33">
-        <v>0.861925601750547</v>
+        <v>0.86367614879649901</v>
       </c>
       <c r="G19" s="33">
         <v>3.2371169029628999</v>
@@ -1585,16 +1585,16 @@
         <v>11</v>
       </c>
       <c r="C20" s="41">
-        <v>769600</v>
+        <v>764000</v>
       </c>
       <c r="D20" s="43">
-        <v>-5.6847545219638196E-3</v>
+        <v>-3.13152400835071E-3</v>
       </c>
       <c r="E20" s="42">
-        <v>-5.4277591108813396E-3</v>
+        <v>-1.31748902092482E-2</v>
       </c>
       <c r="F20" s="44">
-        <v>0.866959558409373</v>
+        <v>0.86065112087416895</v>
       </c>
       <c r="G20" s="44">
         <v>6.19152729433738</v>
